--- a/Макеты/ВА_ИмпортExcel+Mercury.xlsx
+++ b/Макеты/ВА_ИмпортExcel+Mercury.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20398"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Tests\VA-Tests-Perform-En-Budget\Макеты\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VA-Tests\VA-Tests-UH32-Budget\Макеты\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E3A301-E9F7-4AB5-A411-02BC73FAF0B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="32760" windowWidth="11400" windowHeight="5895" tabRatio="0"/>
+    <workbookView xWindow="32760" yWindow="32760" windowWidth="11400" windowHeight="5895" tabRatio="180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
+    <sheet name="2Sheet" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913" refMode="R1C1"/>
 </workbook>
@@ -141,7 +143,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
@@ -676,14 +678,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A2:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
@@ -1543,4 +1545,18 @@
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9323FEB-92D9-4350-B483-495323BBA439}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>